--- a/biology/Zoologie/Grive_à_pieds_jaunes/Grive_à_pieds_jaunes.xlsx
+++ b/biology/Zoologie/Grive_à_pieds_jaunes/Grive_à_pieds_jaunes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Grive_%C3%A0_pieds_jaunes</t>
+          <t>Grive_à_pieds_jaunes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Turdus lherminieri
 La Grive à pieds jaunes (Turdus lherminieri) est une espèce de passereaux de la famille des Turdidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Grive_%C3%A0_pieds_jaunes</t>
+          <t>Grive_à_pieds_jaunes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,8 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Sous-espèces
-Selon la classification de référence du Congrès ornithologique international  (version 6.4, 2016)[1], cet oiseau est représenté par quatre sous-espèces :
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon la classification de référence du Congrès ornithologique international  (version 6.4, 2016), cet oiseau est représenté par quatre sous-espèces :
 Turdus lherminieri dominicensis (Lawrence, 1880) de la Dominique ;
 Turdus lherminieri dorotheae (Wolters, 1980) de Montserrat ;
 Turdus lherminieri lherminieri (Lafresnaye, 1844) de Guadeloupe ;
@@ -529,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Grive_%C3%A0_pieds_jaunes</t>
+          <t>Grive_à_pieds_jaunes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,9 +564,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique des Petites Antilles[2]. Elle se rencontre à Sainte-Lucie, à la Dominique, en Guadeloupe[3] et à Montserrat.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique des Petites Antilles. Elle se rencontre à Sainte-Lucie, à la Dominique, en Guadeloupe et à Montserrat.
 </t>
         </is>
       </c>
@@ -560,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Grive_%C3%A0_pieds_jaunes</t>
+          <t>Grive_à_pieds_jaunes</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,6 +598,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -586,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Grive_%C3%A0_pieds_jaunes</t>
+          <t>Grive_à_pieds_jaunes</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -601,43 +622,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Comportement</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Alimentation
-Reproduction
-Vol et locomotion
-Vocalisation et sons</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Grive_%C3%A0_pieds_jaunes</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Grive_%C3%A0_pieds_jaunes</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
           <t>Écologie et préservation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
